--- a/DataSets/cbr_str_geo.xlsx
+++ b/DataSets/cbr_str_geo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2174,12 +2174,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ОТДЕЛЕНИЕ-НБ РЕСПУБЛИКА БАШКОРТОСТАН</t>
+          <t>Отделение Банка России по Белгородской области</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>УФА ТЕАТРАЛЬНАЯ 3</t>
+          <t>308000, г. Белгород, пр-т Славы, 74</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -2187,12 +2187,2056 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
+          <t>50.598079</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>36.585848</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Брянской области</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>241050, г. Брянск, ул. Горького, 34</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>2</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>53.244984</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>34.365725</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Владимирской области</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>600000, г. Владимир, ул. Большая Московская, 29</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>56.129745</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>40.406455</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Воронежской области</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>394018, г. Воронеж, ул. Театральная, 36</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>51.664334</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>39.205309</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Ивановской области</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>153000, г. Иваново, ул. Красной Армии, 10/1</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>56.994421</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>40.975816</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Калужской области</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>248001, г. Калуга, ул. Ленина, 76</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>54.51476</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>36.264072</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Костромской области</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>156000, г. Кострома, ул. Князева, 5/2</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>57.771662</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>40.932419</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Курской области</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>305004, Российская Федерация, Курская область, городской округ город Курск, Курск город, Ленина улица, здание 83</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>51.745844</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>36.195207</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Липецкой области</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>398000, г. Липецк, пл. Им. Г.В. Плеханова, д.4</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>52.611959</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>39.599067</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Орловской области</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>302001, г. Орел, ул. Гостиная, 6</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>52.963499</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>36.066829</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Рязанской области</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>390000, г. Рязань, ул. Соборная, 20</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>2</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>54.63327</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>39.740642</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Смоленской области</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>214000, г. Смоленск, ул. Б. Советская, 41/18</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>2</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>54.780143</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>32.052392</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Тамбовской области</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>392000, г. Тамбов, ул. Октябрьская, 7</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>2</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>52.72639</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>41.454133</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Тверской области</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>170100, г.Тверь, ул. Советская, 13</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>2</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>56.859881</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>35.91292</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Тульской области</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>300041, г. Тула, ул. Советская, 88</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>2</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>54.189561</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>37.624211</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Ярославской области</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>150000, Российская Федерация, Ярославcкая область, городской округ город Ярославль, город Ярославль, улица Комсомольская здание 7</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>2</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>57.623152</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>39.887534</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Кировской области</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>610000, г. Киров, ул. Спасская, 27</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>2</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>58.602278</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>49.678371</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Пензенской области</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>440000, г. Пенза, ул. Кирова, 62</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>2</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>53.194136</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>45.018738</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Самарской области</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>443099, г. Самара, ул. Куйбышева, 112</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>2</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>53.192096</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>50.091516</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Саратовской области</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>410029, г. Саратов, ул. Советская, 2</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>2</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>51.527051</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>46.032092</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Ульяновской области</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>432017, Российская Федерация, Ульяновская обл., Городской округ город Ульяновск, г. Ульяновск, ул. Красноармейская, зд. 2</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>2</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>54.322243</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>48.402539</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Отделение Банка России — Национальный банк по Республике Марий Эл</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>424000, г. Йошкар-Ола, ул. Палантая, 67</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>2</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>56.632263</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>47.888361</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Отделение Банка России — Национальный банк по Республике Мордовия</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>430005, г. Саранск, ул. Коммунистическая, 32Б</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>2</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>54.183892</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>45.186615</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Отделение Банка России — Национальный банк по Республике Татарстан</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>420013, г. Казань, ул. Баумана, 37</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>2</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>55.789274</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>49.118667</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Отделение Банка России — Национальный банк по Удмуртской Республике </t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>426008, г. Ижевск, ул. Красноармейская, 159</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>2</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>56.844791</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>53.20769</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Отделение Банка России — Национальный банк по Чувашской Республике </t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>428032, г. Чебоксары, ул. К. Маркса, 25</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>2</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>56.141924</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>47.250782</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Отделение Банка России по Чукотскому автономному округу </t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>689000, Чукотский автономный округу, г. Анадырь, ул. Дежнева, 7</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>2</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>64.734029</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>177.51876</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Отделение Банка России по Еврейской автономной области </t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>679016, г. Биробиджан, пр-т 60-летия образования СССР, 5</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>2</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>48.78992</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>132.924746</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Амурской области</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>675000, г. Благовещенск, пер. Святителя Иннокентия, 17</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>2</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>50.26029</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>127.524694</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Магаданской области</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>685000, г. Магадан, ул. Пушкина, 4</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>2</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>59.566828</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>150.804651</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Камчатскому краю</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>683000, г. Петропавловск-Камчатский, пр-т Карла Маркса, 29/2</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>2</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>53.065149</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>158.626884</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Хабаровскому краю</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>680000, г. Хабаровск, ул. Муравьева-Амурского, 42</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>2</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>48.477751</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>135.06782</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Сахалинской области</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>693020, г. Южно-Сахалинск, Коммунистический пр-т, 47</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>2</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>46.958281</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>142.732004</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Отделение Банка России — Национальный банк по Республике Саха (Якутия)</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>677027, г. Якутск, ул. Кирова, 17</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>2</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>62.029018</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>129.726357</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Курганской области</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>640002, Российская Федерация, Курганская область, городской округ город Курган, город Курган, улица Климова, строение 58</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>2</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>55.432715</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>65.349859</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Оренбургской области</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>460000, Российская Федерация, Оренбургская область, город Оренбург городской округ, город Оренбург, улица Ленинская, здание № 28</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>2</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>51.760156</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>55.097773</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Пермскому краю</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>614990, г. Пермь, ул. Ленина, 19</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>2</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>58.015018</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>56.250024</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Тюменской области</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>625000, г. Тюмень, ул. Володарского, 48</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>2</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>57.151286</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>65.546922</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Челябинской области</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>454091, Российская Федерация, Челябинская область, городской округ Челябинский, внутригородской район Центральный, город Челябинск, проспект Ленина, 58</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>2</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>55.160406</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>61.398879</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Отделение Банка России — Национальный банк по Республике Башкортостан</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>450008, г. Уфа, ул. Театральная, 3</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>2</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
           <t>54.720798</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>55.941201</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Архангельской области</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>163000, г. Архангельск, ул. К. Либкнехта, 3</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>2</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>64.53715</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>40.520065</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Вологодской области</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>160000, г. Вологда, ул. Предтеченская, 5</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>2</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>59.217807</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>39.904315</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Калининградской области</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>236022, г. Калининград, ул. Шиллера, 2</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>2</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>54.72177</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>20.477555</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Ленинградской области</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>195273, Санкт-Петербург, Шафировский пр-т, д. 4</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>2</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>59.991601</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>30.436997</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Мурманской области</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>183038, г. Мурманск, ул. Профсоюзов, 11</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>2</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>68.971273</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>33.081934</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Новгородской области</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>173000, г. Великий Новгород, ул. Славная, 33</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>2</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>58.517476</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>31.291268</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Псковской области</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>180000, г. Псков, Октябрьский пр-т, 8,10</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>2</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>57.816877</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>28.335568</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Отделение Банка России — Национальный банк по Республике Карелия</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>185910, г. Петрозаводск, ул. Германа Титова, 10</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>2</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>61.789602</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>34.375526</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Отделение Банка России — Национальный банк по Республике Коми</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>167000, Российская Федерация, Республика Коми, городской округ Сыктывкар, г. Сыктывкар, ул. Ленина, 53</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>2</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>61.669869</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>50.836605</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Алтайскому краю</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>656056, г. Барнаул, ул. Максима Горького, 30</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>2</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>53.336613</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>83.79467</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Иркутской области</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>664025, г. Иркутск, ул. Ленина, 16</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>2</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>52.286211</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>104.279987</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Кемеровской области</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>650000, г. Кемерово, ул. Кирова, 12</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>2</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>55.360044</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>86.078358</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Красноярскому краю</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>660049, г.о. г. Красноярск, г. Красноярск, ул. Дубровинского, зд. 70</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>2</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>56.008148</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>92.881174</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Омской области</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>644099, г. Омск, ул. Певцова, 11</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>2</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>54.991573</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>73.359642</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Томской области</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>634041, г. Томск, пр-т Комсомольский, 68</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>2</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>56.467345</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>84.982324</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Забайкальскому краю</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>672000, г. Чита, ул. Анохина, 74</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>2</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>52.030993</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>113.501435</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Отделение Банка России — Национальный банк по Республике Алтай</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>649000, г. Горно-Алтайск, ул. Чорос-Гуркина, 21</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>2</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>51.956861</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>85.961487</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Отделение Банка России — Национальный банк по Республике Бурятия</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>670042, г. Улан-Удэ, пр-т Строителей, д. 7</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>2</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>51.812721</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>107.656655</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Отделение Банка России — Национальный банк по Республике Тыва</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>667000, г. Кызыл, ул. Ленина, 23</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>2</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>51.720883</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>94.442976</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Отделение Банка России — Национальный банк по Республике Хакасия</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>655017, г. Абакан, ул. Советская, 26</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>2</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>53.722127</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>91.452889</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Астраханской области</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>414000, г. Астрахань, ул. Никольская, 3</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>2</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>46.353604</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>48.029972</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Волгоградской области</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>400066, г. Волгоград, пр-т им. В.И. Ленина, 18</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>2</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>48.708096</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>44.520514</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Республике Крым</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>295011, Республика Крым, г. Симферополь, ул. Сергеева-Ценского, 12/4</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>2</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>44.946981</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>34.10277</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Ростовской области</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>344006, г. Ростов-на-Дону, пр-т Соколова, 22-а</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>2</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>47.222531</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>39.721993</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по г. Севастополь</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>299001, г. Севастополь, ул. Михаила Дзигунского, 1/3</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>2</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>44.612728</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>33.538951</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Отделение Банка России по Ставропольскому краю</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>355035, г. Ставрополь, ул. Ленина, 286</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>2</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>45.039604</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>41.971644</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Отделение Банка России — Национальный банк по Кабардино-Балкарской Республике </t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>360000, г. Нальчик, ул. Головко, 2</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>2</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>43.476794</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>43.600244</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Отделение Банка России — Национальный банк по Карачаево-Черкесской Республике </t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>369000, г. Черкесск, ул. Пушкинская, 84</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>2</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>44.225241</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>42.051252</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Отделение Банка России — Национальный банк по Республике Адыгея</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>385000, г. Майкоп, ул. Ленина, 61</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>2</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>44.613184</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>40.103157</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Отделение Банка России — Национальный банк по Республике Дагестан</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>367000, г. Махачкала, ул. Буйнакского, 1</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>2</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>42.983304</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>47.511401</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Отделение Банка России — Национальный банк по Республике Ингушетия</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>386001, г. Магас, ул. А. Горчханова,1</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>2</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>43.167839</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>44.80626</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Отделение Банка России — Национальный банк по Республике Калмыкия</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>358000, г. Элиста, ул. Нейман, 3</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>2</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>46.309174</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>44.267046</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Отделение Банка России — Национальный банк по Республике Северная Осетия-Алания</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>362040, г. Владикавказ, ул. Куйбышева, 4</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>2</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>43.030462</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>44.681672</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Отделение Банка России — Национальный банк по Чеченской Республике </t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>364020, г. Грозный, Старопромысловское шоссе, 5</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>2</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>43.331109</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>45.676907</t>
         </is>
       </c>
     </row>
